--- a/data/TC003_Registration_General.xlsx
+++ b/data/TC003_Registration_General.xlsx
@@ -81,7 +81,7 @@
     <t>sugumaar</t>
   </si>
   <si>
-    <t>raja3@gmail.com</t>
+    <t>raja10@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data/TC003_Registration_General.xlsx
+++ b/data/TC003_Registration_General.xlsx
@@ -81,7 +81,7 @@
     <t>sugumaar</t>
   </si>
   <si>
-    <t>raja10@gmail.com</t>
+    <t>raja20@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -493,6 +493,7 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
